--- a/イベント更新・削除_単体テスト.xlsx
+++ b/イベント更新・削除_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\kadai\tanntaitest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B39339-906F-4C37-8B7F-98989BF75CF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968CBA57-08FE-44A0-9CCF-1151F6D45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント更新画面" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -159,95 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「住所（番地）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「確認する」ボタンの表示</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -553,19 +464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -573,19 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント更新画面」の表示</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -891,39 +776,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（姓）、名前（名）、カナ（姓）、カナ（名）、メールアドレス</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード、性別、郵便番号、住所（都道府県）、住所（市区町村）、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delete.phpの表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面のURL/delete_confirm.phpが表示されているか</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -989,133 +841,1217 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント更新画面に遷移</t>
+    <t>2.「確認する」ボタンを押す</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント削除できません。」と赤字で表示</t>
+  </si>
+  <si>
+    <t>1.XAMPPのMySQLを停止の状態にする</t>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除確認画面の「削除する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除確認画面に遷移して確認</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で表示する。</t>
+  </si>
+  <si>
+    <t>パスワードが更新された場合、アカウント更新画面の「パスワード」の入力値が●で表示されているか</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが更新されなかった場合、「パスワードは更新されませんでした。」の表示がされているか。</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新画面の「確認する」を押す。</t>
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント更新確認画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新画面のパスワードを入れ「確認する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新画面のパスワードを入れず「確認する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新画面で値を入れ「確認する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面の「更新する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント更新確認画面に遷移して確認</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードは更新されませんでした。」の表示</t>
+  </si>
+  <si>
+    <t>該当アカウントの「パスワード」を●で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpの表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント更新できません。」と赤字で表示</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンの表示</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンの表示</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.マイページ画面の「…」ボタンを押し、「削除」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更がなかった場合、「変更はありませんでした。」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「変更はありませんでした」</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント更新画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベント更新」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベント情報の「タイトル」の表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベント情報の「開始日」の表示</t>
+    <rPh sb="10" eb="13">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベント情報の「終了日」の表示</t>
+    <rPh sb="10" eb="13">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベント情報の「内容」の表示</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベント情報の「写真」の表示</t>
+    <rPh sb="10" eb="12">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント削除完了画面のURL/event-delete-complete.phpの表示</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evnt-delete-complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベントの削除が完了しました。」の表示</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベントへ」ボタンの表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント情報画面の「…」ボタンを押し、「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント削除画面の「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.イベント削除完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（姓）が最大入力文字数は10文字か確認</t>
+    <t>イベントへボタンの表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント削除完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント削除画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベントを削除しますか？削除すると復元することはできません。」の表示</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント削除画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント削除画面のURL/event-delete.phpが表示されているか</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
     <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新」ボタンの表示</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」が最大入力文字数は30文字か確認</t>
+    <rPh sb="20" eb="22">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（名）が最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスが最大入力文字数は100文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードが最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号が最大入力文字数は7文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（市区町村）が最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）が最大入力文字数は100文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」に10文字以上入力する</t>
+    <t>「内容」が最大入力文字数は500文字か確認</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日がカレンダーから選択可能か確認</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日がカレンダーから選択可能か確認</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真が最大選択数は5枚か確認</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」はひらがな、漢字、カタカナ、半角数字、記号、全角スペース、空白のみ入力可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容」はテキストの入力可か</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」は写真や画像ファイルしか選択できないよう制限されているか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」は複数枚選択することができるか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」が入力必須項目か確認</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日」が入力必須項目か確認</t>
+    <rPh sb="1" eb="4">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容」が入力必須項目か確認</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日」が入力任意項目か確認</t>
+    <rPh sb="1" eb="4">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」が選択任意項目か確認</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このフィールドに入力してください」と表示</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ひらがな、漢字、カタカナ、半角数字、記号、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角スペース、空白のみ入力する</t>
+  </si>
+  <si>
+    <t>1.テキスト入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.写真や画像を選択</t>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を複数枚選択する</t>
     <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「タイトル」を未入力にする</t>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「開始日」を未入力にする</t>
+    <rPh sb="3" eb="6">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「内容」を未入力にする</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「終了日」を未入力にする</t>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を未選択にする</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-delete.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-delete-complete.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-update-complete.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-update.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトルが更新されました。」が表示されているか</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日が更新されました。」が表示されているか</t>
+    <rPh sb="1" eb="4">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日が更新されました。」が表示されているか</t>
+    <rPh sb="1" eb="4">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容が更新されました。」が表示されているか</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真が更新されました。」が表示されているか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベントへ」ボタンが表示されているか</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントが削除されました。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベントを削除しますか？削除すると復元することはできません。」</t>
+  </si>
+  <si>
+    <t>該当イベントの「タイトル」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「終了日」（ある場合のみ）の表示</t>
+    <rPh sb="8" eb="11">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「内容」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
     </rPh>
     <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「写真」の表示</t>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「写真」が登録されていない場合、「画像は登録されていません。」の表示</t>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event-delete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「写真」が登録されていない場合、</t>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「画像は登録されていません。」の表示</t>
+  </si>
+  <si>
+    <t>30文字に制御される</t>
+    <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500文字に制御される</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択が可能</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5枚選択可能</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真や画像のみ選択可能</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数枚選択可能</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「タイトル」に30文字以上入力する</t>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.「名前（名）」に10文字以上入力する</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（姓）」に10文字以上入力する</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」に100文字以上入力する</t>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」に10文字以上入力する</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」に7文字以上入力する</t>
-    <rPh sb="3" eb="7">
-      <t>ユウビンバンゴウ</t>
+    <t>1.「内容」に500文字以上入力する</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>モジ</t>
@@ -1129,342 +2065,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.「住所（都道府県）」のプルダウンメニューを開く</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」に10文字以上入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <t>1.カレンダーから日付を選択する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.写真を５枚以上選択する</t>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（番地）」に100文字以上入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10文字以上反映できないようになっている</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100文字以上反映できないようになっている</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7文字以上反映できないようになっている</t>
-    <rPh sb="1" eb="3">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沖縄から北海道まで47都道府県の表示</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄でも可</t>
     <rPh sb="0" eb="2">
-      <t>オキナワ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ホッカイドウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」はひらがな、漢字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」はひらがな、漢字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」は半角英数字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
-  </si>
-  <si>
-    <t>「郵便番号」は半角数字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」が未入力の場合、「名前（姓）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
+      <t>クウラン</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」が未入力の場合、「名前（名）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）」が未入力の場合、「カナ（姓）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）」が未入力の場合、「カナ（名）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」が未入力の場合、「メールアドレスが未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号」が未入力の場合、「郵便番号が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（都道府県）」が未入力の場合、「都道府県を選択してください。」とエラーメッセージを表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」が未入力の場合、「住所（市区町村）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」が未入力の場合、「住所（番地）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1482,608 +2114,189 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「名前（姓）が未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が未入力です。」と表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）が未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）が未入力です。」と表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が未入力です。」と表示</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県を選択してください。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が未入力です。」と表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
+    <t>1.イベント情報画面の「…」ボタンを押し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント更新画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したため、イベント更新ができませんでした。」とエラーメッセージを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したため、イベント更新ができませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント更新画面の「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.イベント更新完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント更新完了画面のURL/event-update-complete.phpが表示されているか</t>
     <rPh sb="4" eb="6">
-      <t>シク</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が未入力です。」と表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント更新画面のURL/event-update.phpが表示されているか</t>
     <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.「確認する」ボタンを押す</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（名）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（姓）」を未入力にする</t>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（名）」を未入力にする</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」を未入力にする</t>
-    <rPh sb="12" eb="15">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」を未入力にする</t>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ユウビン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（都道府県）」を未選択にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（番地）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event-update.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event-update-complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトルが更新されました」</t>
     <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」にひらがな、漢字のみ入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（名）」にひらがな、漢字のみ入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」に半角英数字のみ入力する</t>
-    <rPh sb="10" eb="12">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」に半角英数字、半角ハイフン、半角記号のみ入力</t>
-    <rPh sb="12" eb="14">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」に半角数字のみ入力</t>
-    <rPh sb="3" eb="7">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」にひらがな、漢字、数字、カタカナ、</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号のみ入力</t>
-  </si>
-  <si>
-    <t>1.「住所（番地）」にひらがな、漢字、数字、カタカナ、</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」のUIがテキストボックスとなっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」のUIがテキストボックスとなっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別」のUIがラジオボタンとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（都道府県）」のUIがプルダウンとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限」のUIがプルダウンとなっているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがテキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがプルダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント一覧の「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,アカウント更新画面の「確認する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新確認画面の「前に戻る」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,アカウント更新画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新確認画面の「前に戻る」を押したときに、更新された入力値がセットされているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日が更新されました」</t>
+    <rPh sb="1" eb="4">
+      <t>カイシビ</t>
+    </rPh>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日が更新されました」</t>
+    <rPh sb="1" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容が更新されました」</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真が更新されました」</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント更新画面の「タイトル」を変更し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>コウシン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新された入力値がセットされている</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードは安全上伏せます」の表示</t>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウント削除できません。」と赤字で表示</t>
-  </si>
-  <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント削除確認画面の「削除する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント削除確認画面に遷移して確認</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常系</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新画面で新たに値を入れ、「確認する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
     </rPh>
     <rPh sb="27" eb="28">
       <t>オ</t>
@@ -2091,430 +2304,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント更新確認画面の「更新する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.アカウント更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤字で表示する。</t>
-  </si>
-  <si>
-    <t>パスワードが更新された場合、アカウント更新画面の「パスワード」の入力値が●で表示されているか</t>
+    <t>2.イベント更新画面の「開始日」を変更し、「更新」を押す</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードが更新されなかった場合、「パスワードは更新されませんでした。」の表示がされているか。</t>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント更新画面の「終了日」を変更し、「更新」を押す</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新画面の「確認する」を押す。</t>
-    <rPh sb="7" eb="9">
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント更新画面の「内容」を変更し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント更新確認画面に遷移</t>
-    <rPh sb="7" eb="9">
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新画面のパスワードを入れ「確認する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新画面のパスワードを入れず「確認する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新画面で値を入れ「確認する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新確認画面の「更新する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント更新確認画面に遷移して確認</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードは更新されませんでした。」の表示</t>
-  </si>
-  <si>
-    <t>該当アカウントの「パスワード」を●で表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_confirm.phpの表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウント更新できません。」と赤字で表示</t>
-    <rPh sb="26" eb="28">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」が未入力の場合、エラーメッセージは表示しない。</t>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは表示されない</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「ニックネーム」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値は空欄で、「変更する場合のみ入力」の表示</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「都道府県」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームが最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネーム」はカタカナのみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「ニックネーム」にカタカナのみ入力する</t>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県が北海道～沖縄の４７都道府県の並び順の確認</t>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「住所（市区町村）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「住所（番地）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「アカウント権限」の表示</t>
-    <rPh sb="14" eb="16">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「削除」ボタンの表示</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除画面のURL/account-delete.phpが表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻るボタンの表示</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.マイページ画面の「…」ボタンを押し、「削除」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
     </rPh>
     <rPh sb="25" eb="26">
       <t>オ</t>
@@ -2522,994 +2370,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウントが削除されました。</t>
+    <t>2.イベント更新画面の「写真」を変更し、「更新」を押す</t>
     <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント一覧画面のアカウントを押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.マイページ画面で「名前（姓）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.マイページ更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「名前（名）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネームが更新されました。」が表示されているか</t>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「ニックネーム」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが更新されました。」が表示されているか</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが更新されました。」が表示されているか</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
+    <t>イベント更新完了画面</t>
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限が更新されました。」が表示されているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロフィール画像が更新されました。」が表示されているか</t>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更がなかった場合、「変更はありませんでした。」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マイページへ」ボタンが表示されているか</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「メールアドレス」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「パスワード」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「性別」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「郵便番号」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「都道府県」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「住所（市区町村）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「住所（番地）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面の「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で未変更で、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「プロフィール画像」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「アカウント権限」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したため、アカウント更新ができませんでした。」とエラーメッセージを</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新完了画面のURL/mypage-update-complete.phpが表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL/mypage-update-complete.phpの表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネームが更新されました」</t>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが更新されました」</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが更新されました」</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が更新されました」</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県が更新されました」</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限が更新されました」</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロフィール画像が更新されました」</t>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「変更はありませんでした」</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マイページへ」ボタンの表示</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤字で「エラーが発生したため、アカウント更新ができませんでした。」</t>
-    <rPh sb="0" eb="2">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント更新</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント更新画面</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「イベント更新」の表示</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベント情報の「タイトル」の表示</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベント情報の「開始日」の表示</t>
-    <rPh sb="10" eb="13">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベント情報の「終了日」の表示</t>
-    <rPh sb="10" eb="13">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベント情報の「内容」の表示</t>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベント情報の「写真」の表示</t>
-    <rPh sb="10" eb="12">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント削除完了画面のURL/event-delete-complete.phpの表示</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evnt-delete-complete.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「イベントの削除が完了しました。」の表示</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「イベントへ」ボタンの表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.イベント情報画面の「…」ボタンを押し、「削除」を押す</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.イベント削除画面の「削除」を押す</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.イベント削除完了画面に遷移</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントへボタンの表示</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント削除完了画面</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント削除</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント削除画面</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「イベントを削除しますか？削除すると復元することはできません。」の表示</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フクゲン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.イベント削除画面に遷移</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「タイトル」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「開始日」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「内容」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「写真」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「終了日」（ある場合のみ）の表示</t>
-    <rPh sb="9" eb="12">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「写真」が登録されていない場合、「画像は登録されていません。」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント削除画面のURL/event-delete.phpが表示されているか</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3617,7 +2508,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="82">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4538,297 +3429,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5042,57 +3642,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13ADE751-4185-4F2E-B533-55EECBB89263}" name="テーブル22" displayName="テーブル22" ref="A7:I51" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13ADE751-4185-4F2E-B533-55EECBB89263}" name="テーブル22" displayName="テーブル22" ref="A7:I49" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B2795F3E-6CE7-4F82-BD91-97BA079D443E}" name="項目番号" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{9B8A3776-2CD0-42B0-8BD8-6691ADEA8606}" name="大項目" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{49BE846B-CEF7-456B-B61C-C36FCF49A518}" name="列3" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{8450CDCB-6F79-42D9-8681-D43F2EC49751}" name="確認内容" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{DC9198CB-8504-4EE9-A93D-5688AD5FE007}" name="操作手順" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{54F44680-E94C-45B4-8709-6AB235EAE9D2}" name="期待値" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{66E0518E-97B6-4745-9826-B40A7C54B0BC}" name="実施日" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{3C1E7D0E-723C-43A3-BDB5-A51D0A3C3D07}" name="実施結果" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{21250C88-63F0-4660-9163-DDB5BF1F77D2}" name="備考" dataDxfId="92"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I19" totalsRowShown="0" headerRowDxfId="1">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
-    <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
-    <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
-    <tableColumn id="5" xr3:uid="{339D6A10-737A-4E8E-B51A-EBA2DECA773A}" name="操作手順"/>
-    <tableColumn id="6" xr3:uid="{2D7C88C6-CBFC-4B23-B44B-2137665DA02A}" name="期待値"/>
-    <tableColumn id="7" xr3:uid="{A5A0C206-A5FA-42B4-81A1-180795C7DD16}" name="実施日"/>
-    <tableColumn id="8" xr3:uid="{A55E0386-4981-4DC9-8A85-02A4417E727B}" name="実施結果"/>
-    <tableColumn id="9" xr3:uid="{8F30EB4F-F9C2-4258-A495-43BC1466C5AF}" name="備考"/>
+    <tableColumn id="1" xr3:uid="{B2795F3E-6CE7-4F82-BD91-97BA079D443E}" name="項目番号" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{9B8A3776-2CD0-42B0-8BD8-6691ADEA8606}" name="大項目" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{49BE846B-CEF7-456B-B61C-C36FCF49A518}" name="列3" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{8450CDCB-6F79-42D9-8681-D43F2EC49751}" name="確認内容" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{DC9198CB-8504-4EE9-A93D-5688AD5FE007}" name="操作手順" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{54F44680-E94C-45B4-8709-6AB235EAE9D2}" name="期待値" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{66E0518E-97B6-4745-9826-B40A7C54B0BC}" name="実施日" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{3C1E7D0E-723C-43A3-BDB5-A51D0A3C3D07}" name="実施結果" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{21250C88-63F0-4660-9163-DDB5BF1F77D2}" name="備考" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F28AD1DE-70CC-47EA-9172-BE06D8443B2D}" name="テーブル36" displayName="テーブル36" ref="A52:I89" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6370C07D-4B32-410B-837C-CA2529C0E596}" name="項目番号" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{E285C7BF-EBDE-4E8B-9926-18DDC417CC36}" name="大項目" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{D8D0C1FC-6828-46F9-B8D3-6E71AB1B8112}" name="列3" headerRowDxfId="86" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{709F36DE-004A-4722-AB60-7BE03D2317DB}" name="確認内容" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{1B3BC8DE-3A2A-43CB-8778-8C6A0AB78752}" name="操作手順" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{E6C1F3DD-9993-4D60-9CE6-FFC866A52985}" name="期待値" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{866440D1-8973-4561-9894-E825A4A04E68}" name="実施日" headerRowDxfId="78" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{8B28BEFE-D5F8-441A-8F57-C0E4ACB1DC2C}" name="実施結果" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{8EA90E4E-2079-4251-8ECB-9CFC9D99FC16}" name="備考" headerRowDxfId="74" dataDxfId="73"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{33098DAE-E06C-4560-B73E-4F0F0E59D74A}" name="テーブル228" displayName="テーブル228" ref="A7:I58" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7534149B-4C04-491F-A0CD-86FFE43053D7}" name="項目番号" dataDxfId="72"/>
@@ -5109,7 +3675,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE5F0268-1C0D-4524-B2A0-F5D5CB84A6DC}" name="テーブル369" displayName="テーブル369" ref="A60:I64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="63">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0CF4F692-0DAD-4EF7-A4C7-7FF64F09674D}" name="項目番号" headerRowDxfId="62" dataDxfId="61"/>
@@ -5126,8 +3692,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6688ECC4-4D6F-4C77-B1F2-18477D12A3B6}" name="テーブル22810" displayName="テーブル22810" ref="A7:I68" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6688ECC4-4D6F-4C77-B1F2-18477D12A3B6}" name="テーブル22810" displayName="テーブル22810" ref="A7:I34" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2D33342D-97FD-49C9-A99B-79A39CE1C572}" name="項目番号" dataDxfId="52"/>
     <tableColumn id="2" xr3:uid="{0903F38B-DCC4-4385-AB6B-16DD94CD088E}" name="大項目" dataDxfId="51"/>
@@ -5143,8 +3709,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7AC8FC9F-AAC3-4957-88EC-67010AF7807A}" name="テーブル36911" displayName="テーブル36911" ref="A71:I75" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7AC8FC9F-AAC3-4957-88EC-67010AF7807A}" name="テーブル36911" displayName="テーブル36911" ref="A37:I41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD419F7B-FADE-4072-A9C2-1E6C309A65DD}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{FD45A810-9734-4281-9D64-2A717DBFABB8}" name="大項目" headerRowDxfId="40"/>
@@ -5160,8 +3726,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I39" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I27" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -5177,8 +3743,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A40:I44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A28:I32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -5194,7 +3760,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A22:I25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
@@ -5206,6 +3772,23 @@
     <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
     <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
     <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I19" totalsRowShown="0" headerRowDxfId="1">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
+    <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
+    <tableColumn id="5" xr3:uid="{339D6A10-737A-4E8E-B51A-EBA2DECA773A}" name="操作手順"/>
+    <tableColumn id="6" xr3:uid="{2D7C88C6-CBFC-4B23-B44B-2137665DA02A}" name="期待値"/>
+    <tableColumn id="7" xr3:uid="{A5A0C206-A5FA-42B4-81A1-180795C7DD16}" name="実施日"/>
+    <tableColumn id="8" xr3:uid="{A55E0386-4981-4DC9-8A85-02A4417E727B}" name="実施結果"/>
+    <tableColumn id="9" xr3:uid="{8F30EB4F-F9C2-4258-A495-43BC1466C5AF}" name="備考"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5528,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5549,13 +4132,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5582,12 +4165,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5628,19 +4211,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45826</v>
+        <v>93</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -5650,7 +4233,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5666,19 +4249,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45826</v>
+        <v>94</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -5688,7 +4271,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5704,19 +4287,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45826</v>
+        <v>95</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -5726,7 +4309,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5742,19 +4325,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45826</v>
+        <v>96</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45993</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -5764,7 +4347,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -5773,26 +4356,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>45826</v>
+        <v>97</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45993</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -5802,7 +4385,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5811,26 +4394,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45826</v>
+        <v>98</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -5840,7 +4423,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -5849,26 +4432,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45826</v>
+        <v>116</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5878,7 +4461,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5887,26 +4470,26 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45826</v>
+        <v>163</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -5915,9 +4498,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5925,26 +4506,26 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45826</v>
+        <v>164</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45993</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -5953,36 +4534,34 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45826</v>
+        <v>165</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5991,9 +4570,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -6001,26 +4578,26 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45826</v>
+        <v>165</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45993</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -6029,9 +4606,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -6039,26 +4614,26 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="3">
-        <v>45826</v>
+        <v>166</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45993</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -6067,36 +4642,34 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45826</v>
+        <v>174</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45993</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -6106,7 +4679,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -6115,26 +4688,26 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45826</v>
+        <v>174</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45993</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -6151,26 +4724,26 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="3">
-        <v>45826</v>
+        <v>167</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45993</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -6187,26 +4760,26 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45826</v>
+        <v>168</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45993</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -6223,26 +4796,26 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="3">
-        <v>45826</v>
+        <v>131</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45993</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -6251,7 +4824,9 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -6259,26 +4834,26 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="3">
-        <v>45826</v>
+        <v>131</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45993</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -6287,7 +4862,9 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -6295,26 +4872,26 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="3">
-        <v>45826</v>
+        <v>131</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45993</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -6323,7 +4900,9 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6331,26 +4910,26 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45826</v>
+        <v>173</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45993</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -6359,7 +4938,9 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -6367,26 +4948,26 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45826</v>
+        <v>173</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45993</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -6395,7 +4976,9 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -6403,26 +4986,26 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="3">
-        <v>45826</v>
+        <v>114</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45993</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -6431,7 +5014,9 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -6439,26 +5024,26 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>94</v>
+      <c r="D52" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="3">
-        <v>45826</v>
+        <v>183</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45993</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -6467,1116 +5052,13 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
-        <v>26</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
-        <v>27</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
-        <v>29</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G58" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G60" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
-        <v>32</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G64" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
-        <v>33</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G66" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
-        <v>34</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
-        <v>35</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
-        <v>36</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
-        <v>37</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2">
-        <v>38</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2">
-        <v>39</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G78" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2">
-        <v>40</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2">
-        <v>41</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G82" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
-        <v>42</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2">
-        <v>43</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
-        <v>44</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G88" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
-        <v>45</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G90" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2">
-        <v>46</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
-        <v>47</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2">
-        <v>48</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G96" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="2">
-        <v>49</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G98" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="2">
-        <v>50</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G100" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2">
-        <v>51</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G102" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2">
-        <v>52</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G104" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="2">
-        <v>53</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G106" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="2">
-        <v>54</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="2">
-        <v>55</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7584,9 +5066,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7614,13 +5095,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7652,7 +5133,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7693,19 +5174,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -7715,7 +5196,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7728,7 +5209,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7744,19 +5225,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -7766,7 +5247,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7779,7 +5260,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7795,19 +5276,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -7817,7 +5298,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7830,7 +5311,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7846,19 +5327,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -7868,7 +5349,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -7881,7 +5362,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -7897,19 +5378,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -7919,7 +5400,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7932,7 +5413,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7948,19 +5429,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -7970,7 +5451,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7983,7 +5464,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7999,19 +5480,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="G26" s="3">
         <v>45826</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -8021,7 +5502,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -8034,7 +5515,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -8050,19 +5531,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3">
         <v>45826</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -8072,7 +5553,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -8085,7 +5566,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -8101,19 +5582,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3">
         <v>45826</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -8123,7 +5604,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -8136,7 +5617,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -8152,19 +5633,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G35" s="3">
         <v>45826</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -8174,7 +5655,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -8187,7 +5668,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -8203,19 +5684,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G38" s="3">
         <v>45826</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -8225,7 +5706,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -8238,7 +5719,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -8254,19 +5735,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G41" s="3">
         <v>45826</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -8276,7 +5757,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -8289,7 +5770,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -8305,19 +5786,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" s="3">
         <v>45826</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -8327,7 +5808,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -8340,7 +5821,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -8356,19 +5837,19 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" s="3">
         <v>45826</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -8378,7 +5859,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -8391,7 +5872,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -8407,19 +5888,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G50" s="3">
         <v>45826</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -8429,7 +5910,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -8442,7 +5923,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -8458,19 +5939,19 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G53" s="3">
         <v>45826</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -8480,7 +5961,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -8493,7 +5974,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
@@ -8509,19 +5990,19 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="G56" s="3">
         <v>45826</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I56" s="5"/>
     </row>
@@ -8531,7 +6012,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
@@ -8544,7 +6025,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -8556,23 +6037,23 @@
         <v>18</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="G59" s="3">
         <v>45826</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -8581,10 +6062,10 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -8597,7 +6078,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -8630,10 +6111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8651,13 +6132,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8684,12 +6165,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8722,25 +6203,27 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45826</v>
+        <v>185</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -8750,7 +6233,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -8763,7 +6246,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8772,26 +6255,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45826</v>
+        <v>186</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45993</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -8801,7 +6284,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -8814,7 +6297,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8823,26 +6306,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45826</v>
+        <v>187</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45993</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -8852,7 +6335,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8865,7 +6348,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8873,20 +6356,28 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8895,7 +6386,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -8908,7 +6399,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -8916,20 +6407,28 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8938,7 +6437,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8951,7 +6450,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -8959,20 +6458,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8981,7 +6488,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -8994,7 +6501,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -9002,20 +6509,28 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9024,7 +6539,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -9037,7 +6552,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -9045,29 +6560,39 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -9080,7 +6605,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -9088,20 +6613,28 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>216</v>
+      <c r="D32" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9110,10 +6643,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
@@ -9123,7 +6656,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -9131,20 +6664,28 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9153,438 +6694,12 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G65" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9601,10 +6716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9622,13 +6737,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9655,12 +6770,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9701,16 +6816,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9719,7 +6838,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -9735,16 +6854,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9753,7 +6876,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -9769,16 +6892,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9787,7 +6914,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -9803,16 +6930,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9821,7 +6952,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -9837,16 +6968,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9855,7 +6990,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -9871,16 +7006,20 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9889,7 +7028,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -9905,16 +7044,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9923,9 +7066,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -9939,16 +7084,20 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9957,7 +7106,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -9973,16 +7122,20 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9991,7 +7144,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -10007,16 +7160,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="5" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10025,7 +7182,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -10037,20 +7194,24 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10059,184 +7220,12 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10274,7 +7263,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -10312,7 +7301,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10351,19 +7340,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -10373,7 +7362,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -10386,7 +7375,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -10402,19 +7391,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -10424,7 +7413,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -10437,7 +7426,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10453,19 +7442,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -10475,7 +7464,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -10488,7 +7477,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10500,23 +7489,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -10526,7 +7515,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -10539,7 +7528,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -10555,19 +7544,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -10577,7 +7566,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -10590,7 +7579,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -10606,19 +7595,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -10628,7 +7617,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -10641,7 +7630,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -10662,10 +7651,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10683,13 +7672,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10716,12 +7705,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10762,16 +7751,20 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10780,7 +7773,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -10793,7 +7786,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -10809,16 +7802,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10827,7 +7824,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -10840,7 +7837,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -10856,16 +7853,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10874,7 +7875,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10887,12 +7888,50 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10900,8 +7939,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/イベント更新・削除_単体テスト.xlsx
+++ b/イベント更新・削除_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\kadai\tanntaitest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968CBA57-08FE-44A0-9CCF-1151F6D45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{968CBA57-08FE-44A0-9CCF-1151F6D45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E5AEC4B-D36F-4EF3-9CB9-FF929B4720EF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント更新画面" sheetId="5" r:id="rId1"/>
@@ -4113,7 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
@@ -6113,8 +6113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6220,10 +6220,10 @@
         <v>185</v>
       </c>
       <c r="G8" s="4">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -6322,10 +6322,10 @@
         <v>187</v>
       </c>
       <c r="G14" s="4">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -6373,10 +6373,10 @@
         <v>188</v>
       </c>
       <c r="G17" s="4">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -6424,10 +6424,10 @@
         <v>189</v>
       </c>
       <c r="G20" s="4">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -6718,7 +6718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -7653,7 +7653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
